--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,24 +562,174 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Strong Interference Now</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Strong Interference</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>30</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Cannot Takeoff</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Contact DJI support</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cannot Takeoff Contact DJI support</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2-6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Change card or delete files</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem2/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,174 +562,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Strong Interference</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>20</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3-22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cannot Takeoff</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2-3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>30</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Contact DJI support</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>30</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Cannot Takeoff Contact DJI support</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2-6</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>35</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Change card or delete files</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4-8</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
